--- a/forms/contact/area_health_facility_nurse-create.xlsx
+++ b/forms/contact/area_health_facility_nurse-create.xlsx
@@ -153,7 +153,7 @@
     <t>Please check if format is correct or if the digits have exceeded maximum required</t>
   </si>
   <si>
-    <t>Use one of the following formats +2547XX XXX XXX or 07XX XXX XXX</t>
+    <t>Use one of the following formats +254XXX XXX XXX or 0XXX XXX XXX</t>
   </si>
   <si>
     <t>phone_alternate</t>
@@ -162,7 +162,7 @@
     <t>Alternate Phone Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Use one of the following formats +2547XX XXX XXX or 07XX XXX XXX </t>
+    <t xml:space="preserve">Use one of the following formats +254XXX XXX XXX or 0XXX XXX XXX </t>
   </si>
   <si>
     <t>meta</t>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="C2" s="40" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-25_18-02</v>
+        <v>2024-01-25_18-09</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>148</v>
